--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77168.57439897713</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77168.57439897713</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113106075.6136</v>
+        <v>42235137.31541695</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12675.22314924245</v>
+        <v>1119893.433336667</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23568.58941657517</v>
+        <v>1934007.243475889</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34470.56304461909</v>
+        <v>2748121.053615111</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45598.85348417712</v>
+        <v>3561418.892319417</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56727.14392373512</v>
+        <v>4374716.731023722</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67855.43094092455</v>
+        <v>5188014.569728027</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78983.65984489793</v>
+        <v>6001312.408432327</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90111.88874887135</v>
+        <v>6814610.247136628</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101240.1791884293</v>
+        <v>7627908.08584093</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112368.4696279874</v>
+        <v>8441205.92454523</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123496.7600675454</v>
+        <v>9254503.763249533</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134625.0470847348</v>
+        <v>10067801.60195384</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145753.3375242929</v>
+        <v>10881099.44065815</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156881.6279638509</v>
+        <v>11694397.27936246</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>168009.918403409</v>
+        <v>12507695.11806678</v>
       </c>
     </row>
   </sheetData>
